--- a/telegram-bot/entities/mylibs/FormattedOneMotoring.xlsx
+++ b/telegram-bot/entities/mylibs/FormattedOneMotoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\SNDGG-SMU-IS483\telegram-bot\entities\mylibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0D831A-96FD-48C3-98CE-85D0FD8D22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD277501-FBB1-4E9A-9CBC-8C4945ED419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1701,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1540"/>
+  <dimension ref="A1:J1540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1718,7 +1718,7 @@
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1781,12 +1781,8 @@
       <c r="J2">
         <v>10</v>
       </c>
-      <c r="M2">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A1540))</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2202,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
